--- a/biology/Zoologie/Chilelopsis/Chilelopsis.xlsx
+++ b/biology/Zoologie/Chilelopsis/Chilelopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chilelopsis est un genre d'araignées mygalomorphes de la famille des Pycnothelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chilelopsis est un genre d'araignées mygalomorphes de la famille des Pycnothelidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques du Chili[1]. Elles se rencontrent dans les régions d'Atacama et de Coquimbo[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques du Chili. Elles se rencontrent dans les régions d'Atacama et de Coquimbo.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.0, 24/02/2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.0, 24/02/2022) :
 Chilelopsis calderoni Goloboff, 1995
 Chilelopsis minima (Goloboff, 1995)
 Chilelopsis puertoviejo Goloboff, 1995
@@ -576,10 +592,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Goloboff en 1995 dans les Nemesiidae. Il est placé dans les Pycnothelidae par Montes de Oca, Indicatti, Opatova, Almeida, Pérez-Miles et Bond en 2022[4].
-Flamencopsis[2] a été placée en synonymie par Montes de Oca, Indicatti, Opatova, Almeida, Pérez-Miles et Bond en 2022[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Goloboff en 1995 dans les Nemesiidae. Il est placé dans les Pycnothelidae par Montes de Oca, Indicatti, Opatova, Almeida, Pérez-Miles et Bond en 2022.
+Flamencopsis a été placée en synonymie par Montes de Oca, Indicatti, Opatova, Almeida, Pérez-Miles et Bond en 2022.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Goloboff, 1995 : « A revision of the South American spiders of the family Nemesiidae (Araneae, Mygalomorphae). Part 1: species from Peru, Chile, Argentina, and Uruguay. » Bulletin of the American Museum of Natural History, no 224, p. 1-189 (texte intégral).</t>
         </is>
